--- a/exe/data/table_information.xlsx
+++ b/exe/data/table_information.xlsx
@@ -2,27 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25490" yWindow="-9560" windowWidth="14620" windowHeight="25100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test_db" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +57,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,6 +422,63 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>column_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>primary_key</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>foreign_key</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -458,6 +522,80 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>v3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>v2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>char[10]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
